--- a/tasks.xlsx
+++ b/tasks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\resources\Google Drive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69EC5E7D-EAB9-47B0-BDAA-510E89A4DE75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A54DDE0E-8677-4C72-B0F1-8E503C053C6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4350" yWindow="5910" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
   <si>
     <t>No</t>
   </si>
@@ -109,6 +109,9 @@
   </si>
   <si>
     <t>nexjs</t>
+  </si>
+  <si>
+    <t>paygate integration</t>
   </si>
 </sst>
 </file>
@@ -433,7 +436,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -613,8 +616,17 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
       <c r="E11" s="1">
-        <v>2675</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
